--- a/WGRDBESstockCoord/format/RCEF/old_versions/RCEF_v14_suggestions/RCEF_tv14.9_example.xlsx
+++ b/WGRDBESstockCoord/format/RCEF/old_versions/RCEF_v14_suggestions/RCEF_tv14.9_example.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/gits/RDBESstockCoord/WGRDBESstockCoord/format/RCEF_v14_suggestions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/kibi_dtu_dk/Documents/RDBES_gits/RDBESstockCoord/WGRDBESstockCoord/format/RCEF/old_versions/RCEF_v14_suggestions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{56C5D8A0-F758-4FB3-A03B-A1E0690E235F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F800B16-5468-409A-A1D2-C5A2F7E588D1}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="8_{56C5D8A0-F758-4FB3-A03B-A1E0690E235F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E32C6D9-AB5B-4541-9320-AF468A5A64F0}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Census Catches fisheriesMan..." sheetId="10" r:id="rId1"/>
@@ -162,9 +162,6 @@
     <t>ICESArea, ICESAreaList, StockArea</t>
   </si>
   <si>
-    <t>StockArea</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -253,6 +250,9 @@
   </si>
   <si>
     <t>A map with overlapping Managementunits</t>
+  </si>
+  <si>
+    <t>27.4.a, 27.4.b</t>
   </si>
 </sst>
 </file>
@@ -287,7 +287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +312,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -325,13 +337,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,10 +500,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -866,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B4E606-8859-41CD-A927-0EFFEE5FD6B1}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -881,7 +893,7 @@
     <col min="8" max="8" width="12.5546875" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
     <col min="10" max="10" width="16.88671875" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="23.88671875" customWidth="1"/>
     <col min="13" max="13" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
@@ -895,7 +907,7 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -971,169 +983,169 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2023</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C4">
-        <v>2023</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="F4" s="8">
+        <v>107254</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="R4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2023</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="8">
+        <v>107254</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F4">
+      <c r="L5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" s="9"/>
+      <c r="R5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>9</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2023</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="6">
         <v>107254</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="K6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="R4" t="s">
-        <v>25</v>
-      </c>
-      <c r="S4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5">
-        <v>2023</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5">
-        <v>107254</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="1"/>
-      <c r="R5" t="s">
-        <v>25</v>
-      </c>
-      <c r="S5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6">
-        <v>2023</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6">
-        <v>107254</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="1"/>
+      <c r="P6" s="7"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>2023</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7">
         <v>126417</v>
@@ -1151,16 +1163,16 @@
         <v>38</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1170,16 +1182,16 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>2023</v>
       </c>
       <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
         <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
       </c>
       <c r="F8">
         <v>126417</v>
@@ -1197,16 +1209,16 @@
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1216,16 +1228,16 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9">
         <v>2023</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9">
         <v>126425</v>
@@ -1243,13 +1255,13 @@
         <v>38</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1259,16 +1271,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>2023</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
         <v>42</v>
-      </c>
-      <c r="C10">
-        <v>2023</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" t="s">
-        <v>43</v>
       </c>
       <c r="F10">
         <v>107254</v>
@@ -1289,16 +1301,16 @@
         <v>6</v>
       </c>
       <c r="L10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="N10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="O10" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P10" s="1"/>
       <c r="R10" t="s">
@@ -1313,16 +1325,16 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11">
+        <v>2023</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
         <v>42</v>
-      </c>
-      <c r="C11">
-        <v>2023</v>
-      </c>
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
       </c>
       <c r="F11">
         <v>107254</v>
@@ -1340,19 +1352,19 @@
         <v>38</v>
       </c>
       <c r="K11" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" t="s">
         <v>44</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="N11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="O11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P11" s="1"/>
       <c r="R11" t="s">
@@ -1367,16 +1379,16 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>2023</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
         <v>42</v>
-      </c>
-      <c r="C12">
-        <v>2023</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
       </c>
       <c r="F12">
         <v>107254</v>
@@ -1391,19 +1403,19 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" t="s">
         <v>40</v>
       </c>
-      <c r="K12" t="s">
-        <v>41</v>
-      </c>
       <c r="L12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P12" s="1"/>
     </row>
@@ -1427,7 +1439,7 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N16" s="1"/>
       <c r="P16" s="1"/>
@@ -1440,7 +1452,7 @@
         <v>36</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -1507,16 +1519,16 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19">
+        <v>2023</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
         <v>42</v>
-      </c>
-      <c r="C19">
-        <v>2023</v>
-      </c>
-      <c r="D19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" t="s">
-        <v>43</v>
       </c>
       <c r="F19">
         <v>107254</v>
@@ -1531,16 +1543,16 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
@@ -1556,16 +1568,16 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>2023</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
         <v>42</v>
-      </c>
-      <c r="C20">
-        <v>2023</v>
-      </c>
-      <c r="D20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" t="s">
-        <v>43</v>
       </c>
       <c r="F20">
         <v>107254</v>
@@ -1580,16 +1592,16 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="O20" s="1"/>
       <c r="Q20" t="s">
@@ -1604,16 +1616,16 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21">
         <v>2023</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21">
         <v>126417</v>
@@ -1628,16 +1640,16 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="K21" t="s">
-        <v>49</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="N21" s="1"/>
       <c r="P21" s="1"/>
@@ -1647,16 +1659,16 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22">
         <v>2023</v>
       </c>
       <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
         <v>51</v>
-      </c>
-      <c r="E22" t="s">
-        <v>52</v>
       </c>
       <c r="F22">
         <v>126417</v>
@@ -1671,16 +1683,16 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22" t="s">
+        <v>49</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="K22" t="s">
-        <v>50</v>
-      </c>
-      <c r="L22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="N22" s="1"/>
       <c r="P22" s="1"/>
@@ -1690,16 +1702,16 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23">
         <v>2023</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23">
         <v>126425</v>
@@ -1717,13 +1729,13 @@
         <v>38</v>
       </c>
       <c r="K23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N23" s="1"/>
       <c r="P23" s="1"/>
@@ -1733,16 +1745,16 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24">
+        <v>2023</v>
+      </c>
+      <c r="D24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" t="s">
         <v>42</v>
-      </c>
-      <c r="C24">
-        <v>2023</v>
-      </c>
-      <c r="D24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" t="s">
-        <v>43</v>
       </c>
       <c r="F24">
         <v>107254</v>
@@ -1757,19 +1769,19 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="N24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O24" s="1"/>
       <c r="Q24" t="s">
@@ -1784,16 +1796,16 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25">
+        <v>2023</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" t="s">
         <v>42</v>
-      </c>
-      <c r="C25">
-        <v>2023</v>
-      </c>
-      <c r="D25" t="s">
-        <v>48</v>
-      </c>
-      <c r="E25" t="s">
-        <v>43</v>
       </c>
       <c r="F25">
         <v>107254</v>
@@ -1808,19 +1820,19 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K25" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="N25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O25" s="1"/>
       <c r="Q25" t="s">
@@ -1835,16 +1847,16 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26">
+        <v>2023</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" t="s">
         <v>42</v>
-      </c>
-      <c r="C26">
-        <v>2023</v>
-      </c>
-      <c r="D26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E26" t="s">
-        <v>43</v>
       </c>
       <c r="F26">
         <v>107254</v>
@@ -1859,22 +1871,22 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O26" s="1"/>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1892,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1969,7 +1981,7 @@
         <v>2023</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1978,7 +1990,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>5</v>
@@ -2283,38 +2295,38 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2323,6 +2335,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C227E214A244A84FBAA5152CDD6EAC80" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9202a1ecfe0ad2ec696e0f91981ba8e0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" xmlns:ns3="362c980f-4e38-4cca-bd06-5104ee5993c5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a46f65cc92525120babafc4c69c5d04c" ns2:_="" ns3:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -2499,15 +2520,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2521,6 +2533,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{718E005C-88DE-4F66-B59B-F1C1FF5E3D2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD780A6C-FDDC-4177-9817-26C904DC3A4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2535,14 +2555,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{718E005C-88DE-4F66-B59B-F1C1FF5E3D2A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
